--- a/storage/app/imports/JORequest Form.xlsx
+++ b/storage/app/imports/JORequest Form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonah Benares\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA475188-5710-4F85-8F50-5EF3C2E28461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733E7230-47A3-48CD-B142-98D68396D41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,9 +187,6 @@
     <t>30days</t>
   </si>
   <si>
-    <t>JO123</t>
-  </si>
-  <si>
     <t>Test Purpose</t>
   </si>
   <si>
@@ -218,6 +215,9 @@
   </si>
   <si>
     <t>item3</t>
+  </si>
+  <si>
+    <t>JO1234</t>
   </si>
 </sst>
 </file>
@@ -852,7 +852,7 @@
   <dimension ref="A2:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="C11" sqref="C11:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -990,7 +990,7 @@
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="30"/>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="37" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="30"/>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
@@ -1061,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
@@ -1078,7 +1078,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="48"/>
       <c r="D14" s="48"/>
@@ -1118,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
@@ -1130,7 +1130,7 @@
         <v>21</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K16" s="9">
         <v>104</v>
@@ -1141,7 +1141,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K17" s="9">
         <v>10246</v>
@@ -1238,11 +1238,11 @@
         <v>5</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
@@ -1259,11 +1259,11 @@
         <v>10</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
@@ -1280,11 +1280,11 @@
         <v>15</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>

--- a/storage/app/imports/JORequest Form.xlsx
+++ b/storage/app/imports/JORequest Form.xlsx
@@ -1,41 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonah Benares\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733E7230-47A3-48CD-B142-98D68396D41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="JORequest Form" sheetId="1" r:id="rId1"/>
     <sheet name="Department Code" sheetId="2" r:id="rId2"/>
     <sheet name="Requestors Name" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
   <si>
     <t>YYYY-MM-DD</t>
   </si>
@@ -139,95 +125,214 @@
     <t>Code</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>ADM</t>
-  </si>
-  <si>
-    <t>IT Bacolod</t>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>asdaaa</t>
+  </si>
+  <si>
+    <t>asd123</t>
+  </si>
+  <si>
+    <t>asdaaa2</t>
+  </si>
+  <si>
+    <t>sadaaww</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>awts</t>
+  </si>
+  <si>
+    <t>aww</t>
+  </si>
+  <si>
+    <t>department11</t>
+  </si>
+  <si>
+    <t>dept1</t>
+  </si>
+  <si>
+    <t>department2</t>
+  </si>
+  <si>
+    <t>dept2</t>
+  </si>
+  <si>
+    <t>department3</t>
+  </si>
+  <si>
+    <t>dept3</t>
+  </si>
+  <si>
+    <t>ITBS</t>
   </si>
   <si>
     <t>ITB</t>
   </si>
   <si>
-    <t>Purchasing</t>
-  </si>
-  <si>
-    <t>PRC</t>
-  </si>
-  <si>
     <t>Employee Name</t>
   </si>
   <si>
     <t>Position</t>
   </si>
   <si>
-    <t>David Tan</t>
-  </si>
-  <si>
-    <t>Maylen Cabaylo</t>
-  </si>
-  <si>
-    <t>Mila Arana</t>
-  </si>
-  <si>
-    <t>Prency Francisco</t>
-  </si>
-  <si>
-    <t>Syndy Sinoro</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Bacolod</t>
-  </si>
-  <si>
-    <t>30days</t>
-  </si>
-  <si>
-    <t>Test Purpose</t>
-  </si>
-  <si>
-    <t>Activity name</t>
-  </si>
-  <si>
-    <t>General Description</t>
-  </si>
-  <si>
-    <t>scope1</t>
-  </si>
-  <si>
-    <t>scope2</t>
+    <t>aaaaa</t>
+  </si>
+  <si>
+    <t>Albina Stamm</t>
+  </si>
+  <si>
+    <t>Amparo Koss IV</t>
+  </si>
+  <si>
+    <t>asda</t>
+  </si>
+  <si>
+    <t>adadsasdasd</t>
+  </si>
+  <si>
+    <t>Douglas Hansen</t>
+  </si>
+  <si>
+    <t>Dr. Gage Jones V</t>
+  </si>
+  <si>
+    <t>Edwardo Padberg</t>
+  </si>
+  <si>
+    <t>Elfrieda Cruickshank</t>
+  </si>
+  <si>
+    <t>Eloisa Trantow</t>
+  </si>
+  <si>
+    <t>Jasper Rippin II</t>
+  </si>
+  <si>
+    <t>Jonah Faye Benares</t>
+  </si>
+  <si>
+    <t>Software Development Supervisor</t>
+  </si>
+  <si>
+    <t>Lonnie Gottlieb</t>
+  </si>
+  <si>
+    <t>Lysanne Yost</t>
+  </si>
+  <si>
+    <t>Mable Larkin</t>
+  </si>
+  <si>
+    <t>Madison Altenwerth</t>
+  </si>
+  <si>
+    <t>Margarette Kuhlman</t>
+  </si>
+  <si>
+    <t>Miss Gwen Robel I</t>
+  </si>
+  <si>
+    <t>Miss Meghan Conroy II</t>
+  </si>
+  <si>
+    <t>Mr. Melany Prosacco DDS</t>
+  </si>
+  <si>
+    <t>Mr. Steve Schmitt Sr.</t>
+  </si>
+  <si>
+    <t>Prof. Bobbie O'Keefe II</t>
+  </si>
+  <si>
+    <t>Testing Employee</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Vilma Hahn</t>
+  </si>
+  <si>
+    <t>Wilton Jacobi</t>
+  </si>
+  <si>
+    <t>BCD</t>
+  </si>
+  <si>
+    <t>Abc-1001</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>NOTHING</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>Installation of 1-set of screen sliding window at Board room.
+Size: 2.40m  width x 1.18m High w/ existing sliding guide and frames.</t>
+  </si>
+  <si>
+    <t>Installation of 1-set of screen sliding window at Pantry area.
+Size: 4m width x1.01m high.</t>
+  </si>
+  <si>
+    <t>Lot</t>
   </si>
   <si>
     <t>lot</t>
   </si>
   <si>
-    <t>pcs</t>
-  </si>
-  <si>
-    <t>item1</t>
-  </si>
-  <si>
-    <t>item2</t>
-  </si>
-  <si>
-    <t>item3</t>
-  </si>
-  <si>
-    <t>JO1234</t>
+    <t>pc/s</t>
+  </si>
+  <si>
+    <t>roll/s</t>
+  </si>
+  <si>
+    <t>bag/s</t>
+  </si>
+  <si>
+    <t>pack/s</t>
+  </si>
+  <si>
+    <t>pn1001</t>
+  </si>
+  <si>
+    <t>pn1002</t>
+  </si>
+  <si>
+    <t>pn1003</t>
+  </si>
+  <si>
+    <t>pn1004</t>
+  </si>
+  <si>
+    <t>item 1</t>
+  </si>
+  <si>
+    <t>item 2</t>
+  </si>
+  <si>
+    <t>item 3</t>
+  </si>
+  <si>
+    <t>item 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -250,6 +355,12 @@
       <color rgb="FF000000"/>
       <name val="Arial Black"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -265,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -372,11 +483,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -410,12 +610,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -426,37 +626,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -467,12 +650,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -495,11 +680,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,13 +785,7 @@
     <xdr:ext cx="1152525" cy="333375"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Logo" descr="This is my logo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Logo" descr="This is my logo"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -848,31 +1097,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:R28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:K11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
       <c r="I2" s="12"/>
       <c r="J2" s="3"/>
       <c r="K2" s="22"/>
@@ -880,15 +1129,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C3" s="25" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C3" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
       <c r="K3" s="5"/>
       <c r="N3" t="s">
         <v>29</v>
@@ -897,31 +1146,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C4" s="25" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C4" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
       <c r="K4" s="5"/>
       <c r="N4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="6"/>
@@ -929,180 +1178,182 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="28"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="49"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="2"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="28"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="49"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="39">
-        <v>45681</v>
-      </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="33">
+        <v>45693</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="2"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="32"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
+      <c r="I8" s="50">
+        <v>45693</v>
+      </c>
+      <c r="J8" s="50"/>
+      <c r="K8" s="51"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="2"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+      <c r="I9" s="50">
+        <v>45694</v>
+      </c>
+      <c r="J9" s="50"/>
+      <c r="K9" s="51"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="7"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="28"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="49"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="30"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="43" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="36"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="30"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="39"/>
+      <c r="C12" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="36"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="49"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="44"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
       <c r="I15" s="20" t="s">
         <v>14</v>
       </c>
@@ -1113,97 +1364,107 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>1</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="9">
-        <v>21</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K16" s="9">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="60">
+        <v>1</v>
+      </c>
+      <c r="J16" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="9">
+      <c r="B17" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="60">
         <v>1</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K17" s="9">
-        <v>10246</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J17" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="62">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="70"/>
       <c r="I18" s="9"/>
       <c r="J18" s="8"/>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="9"/>
       <c r="J19" s="8"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="70"/>
       <c r="I20" s="9"/>
       <c r="J20" s="8"/>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="52" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="54"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>12</v>
       </c>
@@ -1216,13 +1477,13 @@
       <c r="D22" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="51"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="25"/>
       <c r="J22" s="19" t="s">
         <v>19</v>
       </c>
@@ -1230,135 +1491,205 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="61">
         <v>1</v>
       </c>
-      <c r="B23" s="9">
-        <v>5</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="34"/>
+      <c r="B23" s="61">
+        <v>1</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
       <c r="J23" s="8"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="61">
         <v>2</v>
       </c>
-      <c r="B24" s="9">
-        <v>10</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="34"/>
+      <c r="B24" s="60">
+        <v>2</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="65"/>
       <c r="J24" s="8"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="61">
         <v>3</v>
       </c>
-      <c r="B25" s="9">
-        <v>15</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="34"/>
+      <c r="B25" s="60">
+        <v>3</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="65"/>
       <c r="J25" s="8"/>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="34"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="66">
+        <v>4</v>
+      </c>
+      <c r="B26" s="67">
+        <v>4</v>
+      </c>
+      <c r="C26" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="65"/>
       <c r="J26" s="8"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="34"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="26"/>
       <c r="J27" s="8"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="30"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="47"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B28:K28"/>
+  <mergeCells count="42">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A6:K6"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="A33:K33"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="A8:B8"/>
@@ -1367,11 +1698,28 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1379,20 +1727,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>32</v>
       </c>
@@ -1400,28 +1748,76 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="11" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="11" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>39</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1430,55 +1826,157 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
